--- a/attendance_oct_nov_jan_nsu_brac_aiub/AIUB_ATTENDANCE/attendance_aiub_batchA_jan_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/AIUB_ATTENDANCE/attendance_aiub_batchA_jan_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -14,10 +14,10 @@
     <sheet name="AIUB_BATCH_A" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AIUB_BATCH_A!$A$9:$M$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AIUB_BATCH_A!$A$9:$N$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="561">
   <si>
     <t>S No</t>
   </si>
@@ -1744,7 +1744,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
@@ -2622,7 +2622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3123,9 +3123,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3410,6 +3407,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3444,6 +3442,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3619,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -3659,18 +3658,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="185"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3678,10 +3677,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="187"/>
+      <c r="C4" s="186"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3690,13 +3689,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3749,22 +3748,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="194" t="s">
+      <c r="X6" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="210" t="s">
+      <c r="Y6" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="197" t="s">
+      <c r="Z6" s="196" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="190"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -3819,16 +3818,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="211"/>
-      <c r="Z7" s="198"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="210"/>
+      <c r="Z7" s="197"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="192"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -3883,9 +3882,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="211"/>
-      <c r="Z8" s="198"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="197"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -3957,9 +3956,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="196"/>
-      <c r="Y9" s="212"/>
-      <c r="Z9" s="199"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="198"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6632,15 +6631,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="177"/>
-      <c r="B46" s="178"/>
-      <c r="C46" s="204" t="s">
+      <c r="A46" s="176"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="205"/>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="206"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="204"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="205"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6705,25 +6704,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="188" t="s">
+      <c r="X46" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="200"/>
-      <c r="Z46" s="202">
+      <c r="Y46" s="199"/>
+      <c r="Z46" s="201">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="179"/>
-      <c r="B47" s="180"/>
-      <c r="C47" s="207" t="s">
+      <c r="A47" s="178"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="208"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="208"/>
-      <c r="G47" s="209"/>
+      <c r="D47" s="207"/>
+      <c r="E47" s="207"/>
+      <c r="F47" s="207"/>
+      <c r="G47" s="208"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -6788,9 +6787,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="192"/>
-      <c r="Y47" s="201"/>
-      <c r="Z47" s="203"/>
+      <c r="X47" s="191"/>
+      <c r="Y47" s="200"/>
+      <c r="Z47" s="202"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7058,7 +7057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -7092,18 +7091,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="185"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7111,10 +7110,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="187"/>
+      <c r="C4" s="186"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7123,13 +7122,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7164,22 +7163,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="194" t="s">
+      <c r="R6" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="210" t="s">
+      <c r="S6" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="197" t="s">
+      <c r="T6" s="196" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="190"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7216,16 +7215,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="195"/>
-      <c r="S7" s="211"/>
-      <c r="T7" s="198"/>
+      <c r="R7" s="194"/>
+      <c r="S7" s="210"/>
+      <c r="T7" s="197"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="192"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7262,9 +7261,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="195"/>
-      <c r="S8" s="211"/>
-      <c r="T8" s="198"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="210"/>
+      <c r="T8" s="197"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7318,9 +7317,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="196"/>
-      <c r="S9" s="212"/>
-      <c r="T9" s="199"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="211"/>
+      <c r="T9" s="198"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10216,15 +10215,15 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A59" s="213"/>
-      <c r="B59" s="214"/>
-      <c r="C59" s="204" t="s">
+      <c r="A59" s="212"/>
+      <c r="B59" s="213"/>
+      <c r="C59" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="205"/>
-      <c r="E59" s="205"/>
-      <c r="F59" s="205"/>
-      <c r="G59" s="206"/>
+      <c r="D59" s="204"/>
+      <c r="E59" s="204"/>
+      <c r="F59" s="204"/>
+      <c r="G59" s="205"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10265,25 +10264,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="188" t="s">
+      <c r="R59" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="200"/>
-      <c r="T59" s="202">
+      <c r="S59" s="199"/>
+      <c r="T59" s="201">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="179"/>
-      <c r="B60" s="180"/>
-      <c r="C60" s="207" t="s">
+      <c r="A60" s="178"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="208"/>
-      <c r="E60" s="208"/>
-      <c r="F60" s="208"/>
-      <c r="G60" s="209"/>
+      <c r="D60" s="207"/>
+      <c r="E60" s="207"/>
+      <c r="F60" s="207"/>
+      <c r="G60" s="208"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10324,9 +10323,9 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="192"/>
-      <c r="S60" s="201"/>
-      <c r="T60" s="203"/>
+      <c r="R60" s="191"/>
+      <c r="S60" s="200"/>
+      <c r="T60" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -10414,7 +10413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10451,18 +10450,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="185"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10470,10 +10469,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="187"/>
+      <c r="C4" s="186"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10482,13 +10481,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10520,22 +10519,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="194" t="s">
+      <c r="W6" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="210" t="s">
+      <c r="X6" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="197" t="s">
+      <c r="Y6" s="196" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="190"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10569,16 +10568,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="195"/>
-      <c r="X7" s="211"/>
-      <c r="Y7" s="198"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="210"/>
+      <c r="Y7" s="197"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="192"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10612,9 +10611,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="211"/>
-      <c r="Y8" s="198"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="210"/>
+      <c r="Y8" s="197"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10683,9 +10682,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="196"/>
-      <c r="X9" s="212"/>
-      <c r="Y9" s="199"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="211"/>
+      <c r="Y9" s="198"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13105,15 +13104,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="177"/>
-      <c r="B55" s="178"/>
-      <c r="C55" s="204" t="s">
+      <c r="A55" s="176"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13174,25 +13173,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="188" t="s">
+      <c r="W55" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="200"/>
-      <c r="Y55" s="202">
+      <c r="X55" s="199"/>
+      <c r="Y55" s="201">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="179"/>
-      <c r="B56" s="180"/>
-      <c r="C56" s="207" t="s">
+      <c r="A56" s="178"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="208"/>
-      <c r="E56" s="208"/>
-      <c r="F56" s="208"/>
-      <c r="G56" s="208"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="207"/>
+      <c r="F56" s="207"/>
+      <c r="G56" s="207"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13253,9 +13252,9 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="192"/>
-      <c r="X56" s="201"/>
-      <c r="Y56" s="203"/>
+      <c r="W56" s="191"/>
+      <c r="X56" s="200"/>
+      <c r="Y56" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -13323,7 +13322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13360,18 +13359,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="185"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13379,10 +13378,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="187"/>
+      <c r="C4" s="186"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13391,13 +13390,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13421,22 +13420,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="194" t="s">
+      <c r="W6" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="210" t="s">
+      <c r="X6" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="197" t="s">
+      <c r="Y6" s="196" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="190"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13462,16 +13461,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="195"/>
-      <c r="X7" s="211"/>
-      <c r="Y7" s="198"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="210"/>
+      <c r="Y7" s="197"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="192"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13497,9 +13496,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="211"/>
-      <c r="Y8" s="198"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="210"/>
+      <c r="Y8" s="197"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13568,9 +13567,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="196"/>
-      <c r="X9" s="212"/>
-      <c r="Y9" s="199"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="211"/>
+      <c r="Y9" s="198"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15459,13 +15458,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="J28" sqref="J28"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15478,52 +15477,52 @@
     <col min="6" max="6" width="20" style="77" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" style="77" customWidth="1"/>
     <col min="8" max="8" width="59.140625" style="77" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" style="77" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="77" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="77" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="77"/>
+    <col min="9" max="11" width="15.140625" style="77" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="77" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="77" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:13" ht="13.5" thickBot="1">
-      <c r="B2" s="216" t="s">
+    <row r="1" spans="1:14" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="218"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="219" t="s">
+    <row r="3" spans="1:14">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="220"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="135">
-        <f>SUM(J8:J8)</f>
-        <v>3</v>
+        <f>SUM(I8:K8)</f>
+        <v>9</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1">
-      <c r="B4" s="221" t="s">
+    <row r="4" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="222"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="137">
-        <f>M29</f>
-        <v>84.21052631578948</v>
+        <f>N29</f>
+        <v>78.94736842105263</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:13" ht="15">
-      <c r="A6" s="223" t="s">
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" s="222" t="s">
         <v>520</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="151" t="s">
         <v>18</v>
       </c>
@@ -15533,24 +15532,27 @@
         <v>42390</v>
       </c>
       <c r="J6" s="139">
-        <v>42373</v>
-      </c>
-      <c r="K6" s="224" t="s">
+        <v>42404</v>
+      </c>
+      <c r="K6" s="139">
+        <v>42418</v>
+      </c>
+      <c r="L6" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="224" t="s">
+      <c r="M6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="215" t="s">
+      <c r="N6" s="214" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="223"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="222"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="140" t="s">
         <v>16</v>
       </c>
@@ -15564,16 +15566,19 @@
       <c r="J7" s="142" t="s">
         <v>521</v>
       </c>
-      <c r="K7" s="224"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="215"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="223"/>
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
+      <c r="K7" s="142" t="s">
+        <v>521</v>
+      </c>
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="214"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="222"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
       <c r="F8" s="153" t="s">
         <v>19</v>
       </c>
@@ -15587,11 +15592,14 @@
       <c r="J8" s="158">
         <v>3</v>
       </c>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="215"/>
-    </row>
-    <row r="9" spans="1:13" ht="13.5" thickBot="1">
+      <c r="K8" s="158">
+        <v>3</v>
+      </c>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="214"/>
+    </row>
+    <row r="9" spans="1:14" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15622,707 +15630,759 @@
       <c r="J9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="215"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1">
+      <c r="K9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="214"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
       <c r="B10" s="159"/>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="174" t="s">
         <v>523</v>
       </c>
       <c r="D10" s="161"/>
       <c r="E10" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F10" s="174">
+      <c r="F10" s="173">
         <v>1820507451</v>
       </c>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="175" t="s">
         <v>540</v>
       </c>
-      <c r="H10" s="172"/>
+      <c r="H10" s="171"/>
       <c r="I10" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="143">
-        <f t="shared" ref="K10:K29" si="0">COUNTIF(J10:J10,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="146">
-        <f t="shared" ref="L10:L29" si="1">COUNTBLANK(J10:J10)</f>
+      <c r="K10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="143">
+        <f>COUNTIF(I10:K10,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="146">
+        <f>COUNTBLANK(I10:K10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="156">
-        <f>K10*100/SUM(K10:L10)</f>
+      <c r="N10" s="156">
+        <f>L11*100/SUM(L11:M11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1">
+    <row r="11" spans="1:14" ht="16.5" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
       <c r="B11" s="159"/>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="174" t="s">
         <v>524</v>
       </c>
       <c r="D11" s="161"/>
       <c r="E11" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F11" s="174">
+      <c r="F11" s="173">
         <v>1751211908</v>
       </c>
-      <c r="G11" s="176" t="s">
+      <c r="G11" s="175" t="s">
         <v>541</v>
       </c>
-      <c r="H11" s="172"/>
+      <c r="H11" s="171"/>
       <c r="I11" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K11" s="143">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="146">
-        <f>COUNTBLANK(J11:J11)</f>
+      <c r="K11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="143">
+        <f>COUNTIF(I11:K11,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="146">
+        <f t="shared" ref="M11:M28" si="0">COUNTBLANK(I11:K11)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="156">
-        <f>K11*100/SUM(K11:L11)</f>
+      <c r="N11" s="156">
+        <f>L11*100/SUM(L11:M11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1">
+    <row r="12" spans="1:14" ht="16.5" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
       <c r="B12" s="159"/>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="174" t="s">
         <v>525</v>
       </c>
       <c r="D12" s="161"/>
       <c r="E12" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F12" s="174">
+      <c r="F12" s="173">
         <v>1773030989</v>
       </c>
-      <c r="G12" s="176" t="s">
+      <c r="G12" s="175" t="s">
         <v>542</v>
       </c>
-      <c r="H12" s="171"/>
+      <c r="H12" s="170"/>
       <c r="I12" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J12" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="143">
+      <c r="K12" s="143"/>
+      <c r="L12" s="143">
+        <f t="shared" ref="L11:L28" si="1">COUNTIF(I12:K12,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="146">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L12" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="156">
-        <f t="shared" ref="M12:M28" si="2">K12*100/SUM(K12:L12)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1">
+      <c r="N12" s="156">
+        <f t="shared" ref="N12:N25" si="2">L12*100/SUM(L12:M12)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
       <c r="B13" s="159"/>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="174" t="s">
         <v>526</v>
       </c>
       <c r="D13" s="161"/>
       <c r="E13" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F13" s="174">
+      <c r="F13" s="173">
         <v>1718880198</v>
       </c>
-      <c r="G13" s="176" t="s">
+      <c r="G13" s="175" t="s">
         <v>543</v>
       </c>
-      <c r="H13" s="172"/>
+      <c r="H13" s="171"/>
       <c r="I13" s="143"/>
       <c r="J13" s="143"/>
-      <c r="K13" s="143">
+      <c r="K13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="143">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="146">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="156">
+        <v>2</v>
+      </c>
+      <c r="N13" s="156">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
       <c r="B14" s="159"/>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="174" t="s">
         <v>527</v>
       </c>
       <c r="D14" s="161"/>
       <c r="E14" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F14" s="174">
+      <c r="F14" s="173">
         <v>1676469556</v>
       </c>
-      <c r="G14" s="176" t="s">
+      <c r="G14" s="175" t="s">
         <v>544</v>
       </c>
-      <c r="H14" s="171"/>
+      <c r="H14" s="170"/>
       <c r="I14" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J14" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="143">
+      <c r="K14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="143">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M14" s="146">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="146">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="156">
+      <c r="N14" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1">
+    <row r="15" spans="1:14" ht="16.5" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
       <c r="B15" s="159"/>
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="174" t="s">
         <v>528</v>
       </c>
       <c r="D15" s="161"/>
       <c r="E15" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F15" s="174">
+      <c r="F15" s="173">
         <v>1717030522</v>
       </c>
-      <c r="G15" s="176" t="s">
+      <c r="G15" s="175" t="s">
         <v>545</v>
       </c>
-      <c r="H15" s="171"/>
+      <c r="H15" s="170"/>
       <c r="I15" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J15" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="143">
+      <c r="K15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="143">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M15" s="146">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="146">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="156">
+      <c r="N15" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="170" customFormat="1" ht="16.5" thickBot="1">
+    <row r="16" spans="1:14" s="169" customFormat="1" ht="16.5" thickBot="1">
       <c r="A16" s="164">
         <v>7</v>
       </c>
       <c r="B16" s="165"/>
-      <c r="C16" s="175" t="s">
+      <c r="C16" s="174" t="s">
         <v>529</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F16" s="174">
+      <c r="F16" s="173">
         <v>1738291879</v>
       </c>
-      <c r="G16" s="176" t="s">
+      <c r="G16" s="175" t="s">
         <v>546</v>
       </c>
-      <c r="H16" s="172"/>
+      <c r="H16" s="171"/>
       <c r="I16" s="167"/>
       <c r="J16" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="143">
+      <c r="K16" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="143">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="146">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L16" s="168">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="169">
+      <c r="N16" s="168">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
       <c r="B17" s="159"/>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="174" t="s">
         <v>530</v>
       </c>
       <c r="D17" s="161"/>
       <c r="E17" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F17" s="174">
+      <c r="F17" s="173">
         <v>1933275049</v>
       </c>
-      <c r="G17" s="176" t="s">
+      <c r="G17" s="175" t="s">
         <v>547</v>
       </c>
-      <c r="H17" s="172"/>
+      <c r="H17" s="171"/>
       <c r="I17" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J17" s="143"/>
-      <c r="K17" s="143">
+      <c r="K17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="143">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="146">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="146">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M17" s="156">
+      <c r="N17" s="156">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
       <c r="B18" s="160"/>
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="174" t="s">
         <v>531</v>
       </c>
       <c r="D18" s="161"/>
       <c r="E18" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F18" s="174">
+      <c r="F18" s="173">
         <v>1715201807</v>
       </c>
-      <c r="G18" s="176" t="s">
+      <c r="G18" s="175" t="s">
         <v>548</v>
       </c>
-      <c r="H18" s="172"/>
+      <c r="H18" s="171"/>
       <c r="I18" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="143">
+      <c r="K18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="143">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M18" s="146">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="146">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="156">
+      <c r="N18" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" thickBot="1">
+    <row r="19" spans="1:14" ht="16.5" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
       <c r="B19" s="159"/>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="174" t="s">
         <v>532</v>
       </c>
       <c r="D19" s="161"/>
       <c r="E19" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F19" s="174">
+      <c r="F19" s="173">
         <v>1782102851</v>
       </c>
-      <c r="G19" s="176" t="s">
+      <c r="G19" s="175" t="s">
         <v>549</v>
       </c>
-      <c r="H19" s="173"/>
+      <c r="H19" s="172"/>
       <c r="I19" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="143">
+      <c r="K19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="143">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M19" s="146">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="146">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="156">
+      <c r="N19" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="147" customFormat="1" ht="16.5" thickBot="1">
+    <row r="20" spans="1:14" s="147" customFormat="1" ht="16.5" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
       <c r="B20" s="160"/>
-      <c r="C20" s="175" t="s">
+      <c r="C20" s="174" t="s">
         <v>533</v>
       </c>
       <c r="D20" s="162"/>
       <c r="E20" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F20" s="174">
+      <c r="F20" s="173">
         <v>1944146900</v>
       </c>
-      <c r="G20" s="176" t="s">
+      <c r="G20" s="175" t="s">
         <v>550</v>
       </c>
-      <c r="H20" s="172"/>
+      <c r="H20" s="171"/>
       <c r="I20" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J20" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="143">
+      <c r="K20" s="143"/>
+      <c r="L20" s="143">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="146">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L20" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="156">
+      <c r="N20" s="156">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
       <c r="B21" s="159"/>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="174" t="s">
         <v>534</v>
       </c>
       <c r="D21" s="161"/>
       <c r="E21" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F21" s="174">
+      <c r="F21" s="173">
         <v>1918186266</v>
       </c>
-      <c r="G21" s="176" t="s">
+      <c r="G21" s="175" t="s">
         <v>551</v>
       </c>
-      <c r="H21" s="171"/>
+      <c r="H21" s="170"/>
       <c r="I21" s="143"/>
       <c r="J21" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="143">
+      <c r="K21" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="143">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="146">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L21" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="156">
+      <c r="N21" s="156">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
       <c r="B22" s="159"/>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="174" t="s">
         <v>535</v>
       </c>
       <c r="D22" s="161"/>
       <c r="E22" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F22" s="174">
+      <c r="F22" s="173">
         <v>1966913660</v>
       </c>
-      <c r="G22" s="176" t="s">
+      <c r="G22" s="175" t="s">
         <v>552</v>
       </c>
-      <c r="H22" s="172"/>
+      <c r="H22" s="171"/>
       <c r="I22" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="143">
+      <c r="K22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="143">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M22" s="146">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="146">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="156">
+      <c r="N22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" thickBot="1">
+    <row r="23" spans="1:14" ht="16.5" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
       <c r="B23" s="159"/>
-      <c r="C23" s="175" t="s">
+      <c r="C23" s="174" t="s">
         <v>536</v>
       </c>
       <c r="D23" s="161"/>
       <c r="E23" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F23" s="174">
+      <c r="F23" s="173">
         <v>1571773259</v>
       </c>
-      <c r="G23" s="176" t="s">
+      <c r="G23" s="175" t="s">
         <v>553</v>
       </c>
-      <c r="H23" s="171"/>
+      <c r="H23" s="170"/>
       <c r="I23" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J23" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="143">
+      <c r="K23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="143">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M23" s="146">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="146">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="156">
+      <c r="N23" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" thickBot="1">
+    <row r="24" spans="1:14" ht="16.5" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
       <c r="B24" s="159"/>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="174" t="s">
         <v>537</v>
       </c>
       <c r="D24" s="161"/>
       <c r="E24" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F24" s="174">
+      <c r="F24" s="173">
         <v>1915721071</v>
       </c>
-      <c r="G24" s="176" t="s">
+      <c r="G24" s="175" t="s">
         <v>554</v>
       </c>
-      <c r="H24" s="171"/>
+      <c r="H24" s="170"/>
       <c r="I24" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J24" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="143">
+      <c r="K24" s="143"/>
+      <c r="L24" s="143">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="146">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L24" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="156">
+      <c r="N24" s="156">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
       <c r="B25" s="159"/>
-      <c r="C25" s="175" t="s">
+      <c r="C25" s="174" t="s">
         <v>538</v>
       </c>
       <c r="D25" s="161"/>
       <c r="E25" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F25" s="174"/>
-      <c r="G25" s="176" t="s">
+      <c r="F25" s="173"/>
+      <c r="G25" s="175" t="s">
         <v>555</v>
       </c>
-      <c r="H25" s="172"/>
+      <c r="H25" s="171"/>
       <c r="I25" s="143"/>
       <c r="J25" s="143"/>
-      <c r="K25" s="143">
+      <c r="K25" s="143"/>
+      <c r="L25" s="143">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="146">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="156">
+        <v>3</v>
+      </c>
+      <c r="N25" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" thickBot="1">
+    <row r="26" spans="1:14" ht="16.5" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
       <c r="B26" s="159"/>
-      <c r="C26" s="175" t="s">
+      <c r="C26" s="174" t="s">
         <v>539</v>
       </c>
       <c r="D26" s="161"/>
       <c r="E26" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="F26" s="174">
+      <c r="F26" s="173">
         <v>1685103089</v>
       </c>
-      <c r="G26" s="176" t="s">
+      <c r="G26" s="175" t="s">
         <v>556</v>
       </c>
-      <c r="H26" s="172"/>
+      <c r="H26" s="171"/>
       <c r="I26" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J26" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="143">
-        <f t="shared" ref="K26:K28" si="3">COUNTIF(J26:J26,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="L26" s="146">
-        <f t="shared" ref="L26:L28" si="4">COUNTBLANK(J26:J26)</f>
+      <c r="K26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="143">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="146">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="156">
-        <f t="shared" ref="M26:M28" si="5">K26*100/SUM(K26:L26)</f>
+      <c r="N26" s="156">
+        <f t="shared" ref="N26:N28" si="3">L26*100/SUM(L26:M26)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" thickBot="1">
+    <row r="27" spans="1:14" ht="16.5" thickBot="1">
       <c r="A27" s="144"/>
       <c r="B27" s="159"/>
-      <c r="C27" s="175" t="s">
+      <c r="C27" s="174" t="s">
         <v>557</v>
       </c>
       <c r="D27" s="161"/>
       <c r="E27" s="163"/>
-      <c r="F27" s="174">
+      <c r="F27" s="173">
         <v>1711085151</v>
       </c>
-      <c r="G27" s="176" t="s">
+      <c r="G27" s="175" t="s">
         <v>558</v>
       </c>
-      <c r="H27" s="172"/>
+      <c r="H27" s="171"/>
       <c r="I27" s="143" t="s">
         <v>104</v>
       </c>
       <c r="J27" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K27" s="143">
+      <c r="K27" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="143">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M27" s="146">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="156">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="146">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="156">
-        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" thickBot="1">
+    <row r="28" spans="1:14" ht="16.5" thickBot="1">
       <c r="A28" s="144"/>
       <c r="B28" s="159"/>
-      <c r="C28" s="175" t="s">
+      <c r="C28" s="174" t="s">
         <v>559</v>
       </c>
       <c r="D28" s="161"/>
       <c r="E28" s="163"/>
-      <c r="F28" s="174">
+      <c r="F28" s="173">
         <v>1730974883</v>
       </c>
-      <c r="G28" s="176" t="s">
+      <c r="G28" s="175" t="s">
         <v>560</v>
       </c>
-      <c r="H28" s="172"/>
+      <c r="H28" s="171"/>
       <c r="I28" s="143"/>
       <c r="J28" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="143">
+      <c r="K28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="143">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M28" s="146">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="156">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="146">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="156">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" s="144">
         <v>38</v>
       </c>
@@ -16342,30 +16402,32 @@
         <v>16</v>
       </c>
       <c r="K29" s="149">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="150">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="157">
-        <f>AVERAGE(M10:M28)</f>
-        <v>84.21052631578948</v>
+        <f>COUNTIF(K10:K28,"p")</f>
+        <v>15</v>
+      </c>
+      <c r="L29" s="149">
+        <f>SUM(L10:L28)</f>
+        <v>45</v>
+      </c>
+      <c r="M29" s="150">
+        <f>SUM(M10:M28)</f>
+        <v>12</v>
+      </c>
+      <c r="N29" s="157">
+        <f>AVERAGE(N10:N28)</f>
+        <v>78.94736842105263</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:M29">
-    <filterColumn colId="8"/>
-  </autoFilter>
+  <autoFilter ref="A9:N29"/>
   <mergeCells count="7">
-    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="K6:K9"/>
     <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
